--- a/Publications.xlsx
+++ b/Publications.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\airat\OneDrive\Документы\КАИ\SCINCE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\airat\OneDrive\Документы\КАИ\scince\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{140CC4CE-2F38-4A49-9576-396791545A25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2314B2E-24B0-4C85-B549-1EB2E5F3A78D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publications1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Publications1!$A$1:$E$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Publications1!$A$1:$F$24</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>Наименование журнала</t>
   </si>
@@ -196,21 +196,25 @@
     <t>КАТАЛОГ ИННОВАЦИОННЫХ РАЗРАБОТОК И НАУЧНЫХ ПРОЕКТОВ КГЭУ. Изд. 1 / Составители: Э.В. Шамсутдинов, О.В. Афанасьева, В.Е. Захарова. – Казань, 2018. – 64 с. Илл</t>
   </si>
   <si>
-    <t>ОПРЕДЕЛЕНИЕ ПОВРЕЖДЁННОГО УЧАСТКА ЭЛЕКТРИЧЕСКОЙ
-СЕТИ НА ОСНОВЕ АНАЛИЗА ДАННЫХ С СУЩЕСТВУЮЩИХ
-УСТРОЙСТВ</t>
-  </si>
-  <si>
     <t>https://fondsmena.ru/media/EGM_publicationfiles_Article/%D0%A1%D0%B1%D0%BE%D1%80%D0%BD%D0%B8%D0%BA_%D0%AD%D0%AD%D0%93%D0%9C_2023_%D1%82%D0%BE%D0%BC_2.pdf</t>
   </si>
   <si>
     <t>Электроэнергетика глазами молодежи: материалы XIII Международной научно-технической конференции, 23 – 27 октября 2023, Красноярск. − В 2 т. Т 2. – Красноярск, Сибирский федеральный университет. – 212 с.</t>
+  </si>
+  <si>
+    <t>Для цитирования</t>
+  </si>
+  <si>
+    <t>Туитяров А.М., Хабибуллин М.Н., Туитярова А.И., Исаков Р.Г. Определение повреждённого участка электрической сети на основе анализа данных с существующих устройств. Электроэнергетика глазами молодежи: материалы XIII Международной научно-технической конференции, 23 – 27 октября 2023, Красноярск. − В 2 т. Т 2. – Красноярск, Сибирский федеральный университет. – 212 с.</t>
+  </si>
+  <si>
+    <t>Определение повреждённого участка электрической сети на основе анализа данных с существующих устройств</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,7 +735,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -741,7 +745,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1097,20 +1115,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
     <col min="2" max="2" width="52.81640625" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,16 +1143,19 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4">
         <v>2023</v>
@@ -1141,10 +1164,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
@@ -1157,11 +1183,11 @@
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -1174,11 +1200,11 @@
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1191,11 +1217,11 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1208,11 +1234,11 @@
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -1225,9 +1251,9 @@
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -1240,11 +1266,11 @@
       <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
@@ -1257,11 +1283,11 @@
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1274,11 +1300,11 @@
       <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -1291,11 +1317,11 @@
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1308,11 +1334,11 @@
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1325,11 +1351,11 @@
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -1342,9 +1368,9 @@
       <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -1357,9 +1383,9 @@
       <c r="D15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1372,11 +1398,11 @@
       <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1389,9 +1415,9 @@
       <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1404,9 +1430,9 @@
       <c r="D18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1419,11 +1445,11 @@
       <c r="D19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
@@ -1436,9 +1462,9 @@
       <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1451,9 +1477,9 @@
       <c r="D21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1466,9 +1492,9 @@
       <c r="D22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1481,9 +1507,9 @@
       <c r="D23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -1496,27 +1522,22 @@
       <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="F24" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E23">
-    <sortState ref="A2:E24">
-      <sortCondition descending="1" ref="C1:C23"/>
-    </sortState>
-  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E8" r:id="rId5"/>
-    <hyperlink ref="E9" r:id="rId6"/>
-    <hyperlink ref="E10" r:id="rId7"/>
-    <hyperlink ref="E11" r:id="rId8"/>
-    <hyperlink ref="E12" r:id="rId9"/>
-    <hyperlink ref="E13" r:id="rId10"/>
-    <hyperlink ref="E16" r:id="rId11"/>
-    <hyperlink ref="E19" r:id="rId12"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>

--- a/Publications.xlsx
+++ b/Publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\airat\OneDrive\Документы\КАИ\scince\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2314B2E-24B0-4C85-B549-1EB2E5F3A78D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4970F6CA-97AC-484C-9864-AEA59FA6BC98}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Publications1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Publications1!$A$1:$F$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Publications1!$A$1:$F$25</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>Наименование журнала</t>
   </si>
@@ -52,9 +52,6 @@
     <t>https://kgeu.ru/studportfolio/GetDoc/49229?idFizLico=121278</t>
   </si>
   <si>
-    <t>ТИНЧУРИНСКИЕ ЧТЕНИЯ_x000D_Материалы XIV Международной молодежной научной конференции. В трех томах. Том 1 Ч.2. 2019_x000D_Издательство: Казанский государственный энергетический университет (Казань)</t>
-  </si>
-  <si>
     <t>АНАЛИЗ МЕТОДОВ И УСТРОЙСТВ ОПРЕДЕЛЕНИЯ МЕСТ ПОВРЕЖДЕНИЙ ЛИНИЙ ЭЛЕКТРОПЕРЕДАЧИ В СЕТЯХ СРЕДНЕГО НАПРЯЖЕНИЯ</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>http://energyexpert.ru/content/view/1569</t>
   </si>
   <si>
-    <t>Journal of Engineering and Applied Sciences, ISSN: 1816-949X, Medwell Journals, 2017, FSBEI HE, Kazan State University of Energetics, Kazan, Russia</t>
-  </si>
-  <si>
     <t>Algorithm development for determination of fault location of transmission lines in a branched electrical distribution networks</t>
   </si>
   <si>
@@ -139,9 +133,6 @@
     <t>https://fondsmena.ru/media/EGM_publicationfiles_Article/%D0%A2%D0%BE%D0%BC_2_1.pdf</t>
   </si>
   <si>
-    <t>Публикация в сборнике материалов докладов XII ВСЕРОССИЙСКОЙ ОТКРЫТОЙ МОЛОДЕЖНОЙ НАУЧНО-ПРАКТИЧЕСКОЙ КОНФЕРЕНЦИИ ДИСПЕТЧЕРИЗАЦИЯ И УПРАВЛЕНИЕ В ЭЛЕКТРОЭНЕРГЕТИКЕ_x000D_ 01–03 ноября 2017 г, Казань</t>
-  </si>
-  <si>
     <t>Анализ и расчет распределительных электрических сетей программным средством PSSSINCAL</t>
   </si>
   <si>
@@ -190,9 +181,6 @@
     <t>ОЦЕНКА ВЛИЯНИЯ МНОГОМЕСТНЫХ ЗАМЫКАНИЙ НА ЗЕМЛЮ НА ПОТРЕБИТЕЛЯ 0,4 КВ В ЭЛЕКТРИЧЕСКИХ СЕТЯХ 6–35 КВ С ИЗОЛИРОВАННОЙ НЕЙТРАЛЬЮ</t>
   </si>
   <si>
-    <t>https://panor.ru/magazines/elektrooborudovanie-ekspluataciya-i-remont/numbers/4592.html</t>
-  </si>
-  <si>
     <t>КАТАЛОГ ИННОВАЦИОННЫХ РАЗРАБОТОК И НАУЧНЫХ ПРОЕКТОВ КГЭУ. Изд. 1 / Составители: Э.В. Шамсутдинов, О.В. Афанасьева, В.Е. Захарова. – Казань, 2018. – 64 с. Илл</t>
   </si>
   <si>
@@ -209,6 +197,50 @@
   </si>
   <si>
     <t>Определение повреждённого участка электрической сети на основе анализа данных с существующих устройств</t>
+  </si>
+  <si>
+    <t>Туитяров А. М., Хабибуллин М. Н., Рахматуллин Р. Р.,  Оценка влияния многоместных замыканий на землю на потребителя 0,4 кВ в электрических сетях 6–35 кВ с изолированной нейтралью. Электрооборудование: эксплуатация и ремонт. 2021;10.</t>
+  </si>
+  <si>
+    <t>https://panor.ru/articles/otsenka-vliyaniya-mnogomestnykh-zamykaniy-na-zemlyu-na-potrebitelya-04-kv-v-elektricheskikh-setyakh-635-kv-s-izolirovannoy-neytralyu/71380.html#</t>
+  </si>
+  <si>
+    <t>Туитяров А.М., Хабибуллин М.Н., Нуртдинов И.Г.
+Особенности организации эксплуатации систем РЗА и АСУ ТП в условиях использования стандарта МЭК 61850. ДИСПЕТЧЕРИЗАЦИЯ И УПРАВЛЕНИЕ В ЭЛЕКТРОЭНЕРГЕТИКЕ Материалы XV Всероссийской открытой молодежной научно-практической конференции 21–22 октября 2020 г.</t>
+  </si>
+  <si>
+    <t>Зиганшин И.И., Зиганшина А.И., Туитяров А.М., Сиразутдинов Ф.Р. Интеграция устройств определения мест повреждения в концепцию цифровизации распределительных сетей Сборник трудов XIV молодежной научной конференции «Тинчуринские чтения». В 3 т. Т. 1: тезисы докладов (Казань, 23–26 апреля 2019 г.) /под общ. ред. ректора КГЭУ Э. Ю. Абдуллазянова. – Казань: Казан. гос. энерг. ун-т, 2019</t>
+  </si>
+  <si>
+    <t>ТИНЧУРИНСКИЕ ЧТЕНИЯ
+Материалы XIV Международной молодежной научной конференции. В трех томах. Том 1 Ч.2. 2019
+Издательство: Казанский государственный энергетический университет (Казань)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕМЕНОВ М.Н., ЗИГАНШИН И.И., ТУИТЯРОВ А.М., СИРАЗУТДИНОВ Ф.Р. АНАЛИЗ МЕТОДОВ И УСТРОЙСТВ ОПРЕДЕЛЕНИЯ МЕСТ ПОВРЕЖДЕНИЙ ЛИНИЙ ЭЛЕКТРОПЕРЕДАЧИ В СЕТЯХ СРЕДНЕГО НАПРЯЖЕНИЯ. Материалы XIV Международной молодежной научной конференции. В трех томах. Том 1 Ч.2. 2019 Издательство: Казанский государственный энергетический университет (Казань)
+</t>
+  </si>
+  <si>
+    <t>Хакимзянов Э.Ф., Туитяров А.М. Разработка алгоритма определения мест повреждений линий электропередачи в разветвленных распределительных электрических сетях. Разработка алгоритма определения мест повреждений линий электропередачи в разветвленных распределительных электрических сетях. Журнал для специалистов в области цифровой техники и технологий для энергетики 03 (30) 2017 «Релейщик».</t>
+  </si>
+  <si>
+    <t>[I.N.Lizunov, E.F. Khakimzyanov, R.G.Mustafin, R.Sh.Misbakhov,I.F.Immamutdinov, O.E.Naumov, Touitiyarov A. Journal of Engineering and Applied Sciences, ISSN: 1816-949X, Medwell Journals, 2017 vol.12 NSpecialissue1, pages 5731-5734, FSBEI HE, Kazan State University of Energetics, Kazan, Russia.](https://core.ac.uk/reader/197460320)</t>
+  </si>
+  <si>
+    <t>Elmir Khakimzyanov, Ramil Mustafin, Airat Tuityarov. Algorithm development for determination of fault location of transmission lines in a branched electrical distribution networks. Global Journal of Researches in Engineering: F Electrical and Electronics Engineering. Volume 17 Issue 4 Version 1.0  Year 2017 Type: Double Blind Peer Reviewed International Research Journal Publisher: Global Journals Inc. (USA)Online ISSN:2249-4596&amp; Print ISSN:0975-5861</t>
+  </si>
+  <si>
+    <t>Э.Ф. Хакимзянов, Р.Ф. Газетдинов, А.П. Лупин, А.М. Туитяров, Д.Р. Ишмухаметова, К.Ф. Агзамов. Анализ и расчет надежности распределительных электрических сетей. Сборник материалов докладов VIII Международной молодёжной научно-технической конференции ЭЛЕКТРОЭНЕРГЕТИКА ГЛАЗАМИ МОЛОДЕЖИ –  02 – 06 октября 2017, Самара, Том 2</t>
+  </si>
+  <si>
+    <t>Публикация в сборнике материалов докладов XII ВСЕРОССИЙСКОЙ ОТКРЫТОЙ МОЛОДЕЖНОЙ НАУЧНО-ПРАКТИЧЕСКОЙ КОНФЕРЕНЦИИ ДИСПЕТЧЕРИЗАЦИЯ И УПРАВЛЕНИЕ В ЭЛЕКТРОЭНЕРГЕТИКЕ
+ 01–03 ноября 2017 г, Казань</t>
+  </si>
+  <si>
+    <t>Хакимзянов Э.Ф., Газетдинов Р.Ф., Лупин А.П., Туитяров А.М., Ишмухаметова Д.Р., Агзамов К.Ф. Анализ и расчет распределительных электрических сетей программным средством PSSSINCAL. Сборник материалов докладов XII ВСЕРОССИЙСКОЙ ОТКРЫТОЙ МОЛОДЕЖНОЙ НАУЧНО-ПРАКТИЧЕСКОЙ КОНФЕРЕНЦИИ ДИСПЕТЧЕРИЗАЦИЯ И УПРАВЛЕНИЕ В ЭЛЕКТРОЭНЕРГЕТИКЕ  01–03 ноября 2017 г, Казань</t>
+  </si>
+  <si>
+    <t>Хасанов И.А., Туитяров А.М., Рядов П.С. Единый государственный экзамен: опыт сравнительного анализа учащихся городских и сельских школ // Экономика и менеджмент инновационных технологий. 2016. № 11 [Электронный ресурс]. URL: https://ekonomika.snauka.ru/2016/11/12736 (дата обращения: 03.07.2024).</t>
   </si>
 </sst>
 </file>
@@ -1116,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1144,7 +1176,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>4</v>
@@ -1152,10 +1184,10 @@
     </row>
     <row r="2" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4">
         <v>2023</v>
@@ -1164,18 +1196,18 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4">
         <v>2021</v>
@@ -1183,16 +1215,19 @@
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
       <c r="F3" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4">
         <v>2020</v>
@@ -1200,11 +1235,14 @@
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="F4" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1217,16 +1255,19 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="4">
         <v>2019</v>
@@ -1234,31 +1275,34 @@
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E6" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4">
         <v>2018</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4">
         <v>2018</v>
@@ -1267,15 +1311,15 @@
         <v>7</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C9" s="4">
         <v>2018</v>
@@ -1284,15 +1328,15 @@
         <v>7</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C10" s="4">
         <v>2017</v>
@@ -1300,16 +1344,17 @@
       <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
       <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C11" s="4">
         <v>2017</v>
@@ -1317,33 +1362,29 @@
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
       <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C13" s="4">
         <v>2017</v>
@@ -1351,63 +1392,69 @@
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E13" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4">
         <v>2017</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4">
         <v>2017</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2016</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C17" s="4">
         <v>2016</v>
@@ -1415,14 +1462,16 @@
       <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C18" s="4">
         <v>2016</v>
@@ -1432,12 +1481,12 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4">
         <v>2016</v>
@@ -1445,84 +1494,102 @@
       <c r="D19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4">
         <v>2016</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2016</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2015</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C22" s="4">
         <v>2015</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="4">
         <v>2015</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4">
         <v>2015</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2015</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1534,10 +1601,10 @@
     <hyperlink ref="F9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="F10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="F11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>

--- a/Publications.xlsx
+++ b/Publications.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\airat\OneDrive\Документы\КАИ\scince\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2314B2E-24B0-4C85-B549-1EB2E5F3A78D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAACF833-86CD-4512-B940-03D2F75FAE34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Publications1" sheetId="1" r:id="rId1"/>
+    <sheet name="Publications" sheetId="1" r:id="rId1"/>
+    <sheet name="patents" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Publications1!$A$1:$F$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Publications!$A$1:$D$24</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>Наименование журнала</t>
   </si>
@@ -37,9 +39,6 @@
     <t>тип</t>
   </si>
   <si>
-    <t>ссылка</t>
-  </si>
-  <si>
     <t>Сборник трудов XIV молодежной научной конференции «Тинчуринские чтения». В 3 т. Т. 1: тезисы докладов (Казань, 23–26 апреля 2019 г.) /под общ. ред. ректора КГЭУ Э. Ю. Абдуллазянова. – Казань: Казан. гос. энерг. ун-т, 2019</t>
   </si>
   <si>
@@ -49,18 +48,9 @@
     <t>статья</t>
   </si>
   <si>
-    <t>https://kgeu.ru/studportfolio/GetDoc/49229?idFizLico=121278</t>
-  </si>
-  <si>
-    <t>ТИНЧУРИНСКИЕ ЧТЕНИЯ_x000D_Материалы XIV Международной молодежной научной конференции. В трех томах. Том 1 Ч.2. 2019_x000D_Издательство: Казанский государственный энергетический университет (Казань)</t>
-  </si>
-  <si>
     <t>АНАЛИЗ МЕТОДОВ И УСТРОЙСТВ ОПРЕДЕЛЕНИЯ МЕСТ ПОВРЕЖДЕНИЙ ЛИНИЙ ЭЛЕКТРОПЕРЕДАЧИ В СЕТЯХ СРЕДНЕГО НАПРЯЖЕНИЯ</t>
   </si>
   <si>
-    <t>https://www.elibrary.ru/item.asp?id=44084272</t>
-  </si>
-  <si>
     <t>Сборник материалов докладов X ОМНПК "Диспетчеризация и управление в электроэнергетике"</t>
   </si>
   <si>
@@ -85,9 +75,6 @@
     <t>Влияние нагрузки на точность определения места повреждения в распределительных электрических сетях среднего напряжения</t>
   </si>
   <si>
-    <t>https://kgeu.ru/studportfolio/GetDoc/4767?idFizLico=121278</t>
-  </si>
-  <si>
     <t>Сборник материалов докладов XX Аспирантско-магистерского семинара, посвященного Дню Энергетика</t>
   </si>
   <si>
@@ -103,9 +90,6 @@
     <t>Опыт сравнительного анализа учащихся городских и сельских школ</t>
   </si>
   <si>
-    <t>https://ekonomika.snauka.ru/2016/11/12736</t>
-  </si>
-  <si>
     <t>Система определения расстояний до мест повреждений в распределительных электрических сетях напряжением 6-10 кв</t>
   </si>
   <si>
@@ -118,36 +102,18 @@
     <t>Разработка алгоритма определения мест повреждений линий электропередачи в разветвленных распределительных электрических сетях</t>
   </si>
   <si>
-    <t>http://energyexpert.ru/content/view/1569</t>
-  </si>
-  <si>
-    <t>Journal of Engineering and Applied Sciences, ISSN: 1816-949X, Medwell Journals, 2017, FSBEI HE, Kazan State University of Energetics, Kazan, Russia</t>
-  </si>
-  <si>
     <t>Algorithm development for determination of fault location of transmission lines in a branched electrical distribution networks</t>
   </si>
   <si>
-    <t>https://engineeringresearch.org/index.php/GJRE/article/view/1642/1573</t>
-  </si>
-  <si>
     <t>Публикация в сборнике материалов докладов VIII Международной молодёжной научно-технической конференции ЭЛЕКТРОЭНЕРГЕТИКА ГЛАЗАМИ МОЛОДЕЖИ –  02 – 06 октября 2017, Самара, Том 2</t>
   </si>
   <si>
     <t>Анализ и расчет надежности распределительных электрических сетей</t>
   </si>
   <si>
-    <t>https://fondsmena.ru/media/EGM_publicationfiles_Article/%D0%A2%D0%BE%D0%BC_2_1.pdf</t>
-  </si>
-  <si>
-    <t>Публикация в сборнике материалов докладов XII ВСЕРОССИЙСКОЙ ОТКРЫТОЙ МОЛОДЕЖНОЙ НАУЧНО-ПРАКТИЧЕСКОЙ КОНФЕРЕНЦИИ ДИСПЕТЧЕРИЗАЦИЯ И УПРАВЛЕНИЕ В ЭЛЕКТРОЭНЕРГЕТИКЕ_x000D_ 01–03 ноября 2017 г, Казань</t>
-  </si>
-  <si>
     <t>Анализ и расчет распределительных электрических сетей программным средством PSSSINCAL</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1OjYarU-ALLOhEyJzTIUZ2QHAwxU5BZRT/view</t>
-  </si>
-  <si>
     <t>XIII МОЛОДЕЖНАЯ НАУЧНАЯ КОНФЕРЕНЦИЯ «ТИНЧУРИНСКИЕ ЧТЕНИЯ» 24–27 апреля 2018 г., Казань</t>
   </si>
   <si>
@@ -169,9 +135,6 @@
     <t>Определение аварий в распределительных сетях среднего напряжения</t>
   </si>
   <si>
-    <t>https://fondsmena.ru/media/EGM_publicationfiles_Article/%D0%A1%D0%B1%D0%BE%D1%80%D0%BD%D0%B8%D0%BA_%D1%82%D1%80%D1%83%D0%B4%D0%BE%D0%B2_2018_%D1%87.1_1.pdf</t>
-  </si>
-  <si>
     <t>Программный расчет режимов распределительной электрической сети</t>
   </si>
   <si>
@@ -181,34 +144,43 @@
     <t>ОСОБЕННОСТИ ОРГАНИЗАЦИИ ЭКСПЛУАТАЦИИ СИСТЕМ РЗА И АСУ ТП В УСЛОВИЯХ ИСПОЛЬЗОВАНИЯ СТАНДАРТА МЭК 61850</t>
   </si>
   <si>
-    <t>https://cloud.mail.ru/public/3P1N/3ZCpmXyRC/286%D1%8D%D0%BB%20%D0%94%D0%B8%D1%81%D0%BF%D0%B5%D1%82%D1%87%D0%B5%D1%80%D0%B8%D0%B7%D0%B0%D1%86%D0%B8%D1%8F%202020%20%D0%9F%D1%80%D0%BE%D0%B3%D1%80%D0%B0%D0%BC%D0%BC%D0%B0%20%D0%BA%D0%BE%D0%BD%D1%84%D0%B5%D1%80%D0%B5%D0%BD%D1%86%D0%B8%D0%B8%20(1).pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Электрооборудование: эксплуатация и ремонт </t>
   </si>
   <si>
     <t>ОЦЕНКА ВЛИЯНИЯ МНОГОМЕСТНЫХ ЗАМЫКАНИЙ НА ЗЕМЛЮ НА ПОТРЕБИТЕЛЯ 0,4 КВ В ЭЛЕКТРИЧЕСКИХ СЕТЯХ 6–35 КВ С ИЗОЛИРОВАННОЙ НЕЙТРАЛЬЮ</t>
   </si>
   <si>
-    <t>https://panor.ru/magazines/elektrooborudovanie-ekspluataciya-i-remont/numbers/4592.html</t>
-  </si>
-  <si>
     <t>КАТАЛОГ ИННОВАЦИОННЫХ РАЗРАБОТОК И НАУЧНЫХ ПРОЕКТОВ КГЭУ. Изд. 1 / Составители: Э.В. Шамсутдинов, О.В. Афанасьева, В.Е. Захарова. – Казань, 2018. – 64 с. Илл</t>
   </si>
   <si>
-    <t>https://fondsmena.ru/media/EGM_publicationfiles_Article/%D0%A1%D0%B1%D0%BE%D1%80%D0%BD%D0%B8%D0%BA_%D0%AD%D0%AD%D0%93%D0%9C_2023_%D1%82%D0%BE%D0%BC_2.pdf</t>
-  </si>
-  <si>
     <t>Электроэнергетика глазами молодежи: материалы XIII Международной научно-технической конференции, 23 – 27 октября 2023, Красноярск. − В 2 т. Т 2. – Красноярск, Сибирский федеральный университет. – 212 с.</t>
   </si>
   <si>
-    <t>Для цитирования</t>
-  </si>
-  <si>
-    <t>Туитяров А.М., Хабибуллин М.Н., Туитярова А.И., Исаков Р.Г. Определение повреждённого участка электрической сети на основе анализа данных с существующих устройств. Электроэнергетика глазами молодежи: материалы XIII Международной научно-технической конференции, 23 – 27 октября 2023, Красноярск. − В 2 т. Т 2. – Красноярск, Сибирский федеральный университет. – 212 с.</t>
-  </si>
-  <si>
     <t>Определение повреждённого участка электрической сети на основе анализа данных с существующих устройств</t>
+  </si>
+  <si>
+    <t>ТИНЧУРИНСКИЕ ЧТЕНИЯ
+Материалы XIV Международной молодежной научной конференции. В трех томах. Том 1 Ч.2. 2019
+Издательство: Казанский государственный энергетический университет (Казань)</t>
+  </si>
+  <si>
+    <t>Публикация в сборнике материалов докладов XII ВСЕРОССИЙСКОЙ ОТКРЫТОЙ МОЛОДЕЖНОЙ НАУЧНО-ПРАКТИЧЕСКОЙ КОНФЕРЕНЦИИ ДИСПЕТЧЕРИЗАЦИЯ И УПРАВЛЕНИЕ В ЭЛЕКТРОЭНЕРГЕТИКЕ
+ 01–03 ноября 2017 г, Казань</t>
+  </si>
+  <si>
+    <t>СИСТЕМА ДИСТАНЦИОННОГО ОПРЕДЕЛЕНИЯ ПОВРЕЖДЕННОГО УЧАСТКА ЛИНИИ ЭЛЕКТРОПЕРЕДАЧ РАЗВЕТВЛЕННОЙ ЭЛЕКТРИЧЕСКОЙ СЕТИ</t>
+  </si>
+  <si>
+    <t>СПОСОБ ОПРЕДЕЛЕНИЯ ПОВРЕЖДЕННОГО ОТВЕТВЛЕНИЯ НА ФИДЕРЕ ДРЕВОВИДНОЙ СТРУКТУРЫ ПРИ ОДНОФАЗНОМ ЗАМЫКАНИИ НА ЗЕМЛЮ НА ВОЗДУШНЫХ ЛИНИЯХ ЭЛЕКТРОПЕРЕДАЧИ</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Global Journal of Research in Engineering</t>
   </si>
 </sst>
 </file>
@@ -735,30 +707,31 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1116,430 +1089,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D3" sqref="A1:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="52.81640625" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="43.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2023</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2021</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="C6" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2020</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2019</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C21" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
-        <v>2019</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2018</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2018</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2018</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2016</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2016</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2016</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4">
-        <v>2016</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2016</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="C22" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="3" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="4">
+      <c r="B23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
         <v>2015</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2">
         <v>2015</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2015</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2015</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="8"/>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{9D35C7E4-B754-477D-B407-9278459DEDFF}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{C6E528FF-D0E0-4B0A-8C29-4C6B9D97C823}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{E33360E2-A2C1-4FFD-937A-0CD01777866B}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{8BBD02EB-23D6-4066-9AD8-95BB51C68B96}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.elibrary.ru/item.asp?id=44084272" xr:uid="{4204171E-C741-4271-B7B1-79BF04DE021A}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{64FA3691-3FE3-479D-8235-3FDC1102746B}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{C63D477A-AC35-48CE-9B45-3F2F8EF8BA3F}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{556722FF-AE49-4360-A513-F54895168299}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{74885234-DEDE-429D-BF91-EBEB84D3B5B9}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{3F17E101-9C19-4765-924C-6F1AAD677277}"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://drive.google.com/file/d/1OjYarU-ALLOhEyJzTIUZ2QHAwxU5BZRT/view" xr:uid="{030078B4-B2EA-4CE9-99CD-7E55ECD43BE0}"/>
+    <hyperlink ref="A16" r:id="rId12" xr:uid="{4653D906-B862-4A18-98A3-1F9BE2EEA2EB}"/>
+    <hyperlink ref="A19" r:id="rId13" xr:uid="{2112F697-4B28-42FD-9B72-8FBF3BF17026}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BF4DD4-6E43-4D30-95E8-2F7775A97D45}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="70.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C9A1D07E-6385-4011-A8D8-43D7D58B90A4}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{09856D34-BF2B-418B-8F2B-A8D287EB39E1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5368032-7FDD-4A9A-BA5B-10D1EFF8EC2A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>